--- a/test_data/resources/dwca_matrix_zoobenthos_nat.xlsx
+++ b/test_data/resources/dwca_matrix_zoobenthos_nat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="687" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="687" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="dwc_columns" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="275">
   <si>
     <t>shark_sample_id_md5</t>
   </si>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1456,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -1496,92 +1496,92 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
     </row>
   </sheetData>
@@ -1597,8 +1597,8 @@
   </sheetPr>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,7 +1921,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>187</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>187</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>187</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>187</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>187</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>187</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>187</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>187</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>187</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>187</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>187</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>187</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>187</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>182</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>182</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>182</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>182</v>
       </c>
@@ -2225,8 +2225,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>182</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>182</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>182</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>182</v>
       </c>
@@ -2341,10 +2341,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>187</v>
@@ -2488,10 +2488,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,9 +2510,10 @@
     <col min="12" max="12" width="9.5703125" customWidth="1"/>
     <col min="13" max="15" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>181</v>
       </c>
@@ -2561,8 +2562,11 @@
       <c r="P1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2585,7 +2589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -2608,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -2646,7 +2650,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>187</v>
       </c>
@@ -2660,8 +2664,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>187</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>187</v>
       </c>
@@ -2699,10 +2703,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2712,9 +2716,10 @@
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.140625" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>181</v>
       </c>
@@ -2733,8 +2738,11 @@
       <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>182</v>
       </c>
@@ -2751,7 +2759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>182</v>
       </c>
@@ -2768,7 +2776,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>182</v>
       </c>
@@ -2785,7 +2793,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>182</v>
       </c>
@@ -2802,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>182</v>
       </c>
@@ -2819,7 +2827,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>182</v>
       </c>
@@ -2836,7 +2844,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>182</v>
       </c>
@@ -2853,7 +2861,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>182</v>
       </c>
@@ -2870,7 +2878,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>182</v>
       </c>
@@ -2887,7 +2895,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>182</v>
       </c>
@@ -3023,7 +3031,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>64</v>
       </c>
@@ -3040,7 +3048,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>64</v>
       </c>
@@ -3057,7 +3065,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>64</v>
       </c>
@@ -3082,18 +3090,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -3103,8 +3112,11 @@
       <c r="C1" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>240</v>
       </c>
@@ -3112,7 +3124,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>240</v>
       </c>
@@ -3120,7 +3132,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>240</v>
       </c>
@@ -3128,8 +3140,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -3137,7 +3149,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -3145,7 +3157,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -3153,7 +3165,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -3161,7 +3173,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -3172,7 +3184,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -3180,7 +3192,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -3197,7 +3209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -3285,19 +3297,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>247</v>
       </c>
@@ -3313,8 +3326,11 @@
       <c r="E1" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -3328,7 +3344,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -3342,7 +3358,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -3363,7 +3379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>

--- a/test_data/resources/dwca_matrix_zoobenthos_nat.xlsx
+++ b/test_data/resources/dwca_matrix_zoobenthos_nat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="687" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="687" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwc_columns" sheetId="12" r:id="rId1"/>
@@ -1873,7 +1873,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>182</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>182</v>
       </c>
@@ -1901,10 +1901,10 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>187</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>64</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>64</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
@@ -3092,7 +3092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3300,14 +3300,14 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3379,7 +3379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
